--- a/Running projects/Engro 3rd & 8th Floor/VO/03- variation order for submerisible pump.xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/VO/03- variation order for submerisible pump.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DCB4C4-1A80-4486-875B-6CE842B1D9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F80001C-09CC-42AA-968E-0898CB3D6032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$40</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>S. #</t>
   </si>
@@ -71,13 +71,7 @@
     <t>Note: Vendor Quotations attached</t>
   </si>
   <si>
-    <t>Project: Engro Office 3rd Floor DMC Karachi</t>
-  </si>
-  <si>
     <t>Variation # 3</t>
-  </si>
-  <si>
-    <t>Supply &amp; installation of Offer of Lowara Submersible drainage Pump</t>
   </si>
   <si>
     <t xml:space="preserve">Supply &amp; installation of Offer of Lowara Submersible drainage Pump:
@@ -88,6 +82,15 @@
 RPM: 2900
 Model: DOMO 7
 </t>
+  </si>
+  <si>
+    <t>Project: Engro Office 7th Floor DMC Karachi</t>
+  </si>
+  <si>
+    <t>Supply &amp; installation of Offer of Lowara Submersible drainage Pump with Motor control unit.</t>
+  </si>
+  <si>
+    <t>Supply &amp; installation of motor control unit for both pumps.</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -379,6 +382,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,13 +475,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>659765</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>151834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -525,16 +534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>106026</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>58361</xdr:rowOff>
+      <xdr:colOff>477501</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>153611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -557,7 +566,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439025" y="1685925"/>
+          <a:off x="7810500" y="781050"/>
           <a:ext cx="8964276" cy="8678486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -857,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K38"/>
+  <dimension ref="A7:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +898,7 @@
       </c>
       <c r="B14" s="33"/>
       <c r="I14" s="9">
-        <v>45570</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -898,7 +907,7 @@
     </row>
     <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="27"/>
     </row>
@@ -932,7 +941,7 @@
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -943,9 +952,9 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -985,12 +994,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>1</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="15">
         <f>316240/2</f>
@@ -1018,69 +1027,90 @@
         <v>457800</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37">
+        <v>2</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="38">
+        <v>171100</v>
+      </c>
+      <c r="D24" s="15">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="16">
+        <f>SUM(C24+D24)*25%</f>
+        <v>50275</v>
+      </c>
+      <c r="F24" s="16">
+        <f>D24+C24+E24</f>
+        <v>251375</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <f>F24*H24</f>
+        <v>251375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="31">
-        <f>SUM(I23:I23)</f>
-        <v>457800</v>
-      </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="31">
+        <f>SUM(I23:I24)</f>
+        <v>709175</v>
+      </c>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:19" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -1088,13 +1118,10 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="24"/>
+    </row>
+    <row r="35" spans="1:19" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -1104,21 +1131,44 @@
       <c r="I35" s="22"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="8"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K39" s="8"/>
+      <c r="S39">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <f>S39*1.18</f>
+        <v>171100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="A20:I20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>

--- a/Running projects/Engro 3rd & 8th Floor/VO/03- variation order for submerisible pump.xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/VO/03- variation order for submerisible pump.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F80001C-09CC-42AA-968E-0898CB3D6032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EDBCEE-9904-46C5-975A-D25E6F9AB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>S. #</t>
   </si>
@@ -74,23 +74,20 @@
     <t>Variation # 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Supply &amp; installation of Offer of Lowara Submersible drainage Pump:
+    <t>Project: Engro Office 7th Floor DMC Karachi</t>
+  </si>
+  <si>
+    <t>Supply &amp; installation of Offer of Lowara Submersible drainage Pump with Motor control unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply &amp; installation of Offer of Lowara Submersible drainage Pump motor control unit for both pumps.:
 Make: Lowara
 Origin: Italy
 Flow: 20 USGPM
 Head: 15 FT
 RPM: 2900
-Model: DOMO 7
+Model: DOMO 10
 </t>
-  </si>
-  <si>
-    <t>Project: Engro Office 7th Floor DMC Karachi</t>
-  </si>
-  <si>
-    <t>Supply &amp; installation of Offer of Lowara Submersible drainage Pump with Motor control unit.</t>
-  </si>
-  <si>
-    <t>Supply &amp; installation of motor control unit for both pumps.</t>
   </si>
 </sst>
 </file>
@@ -286,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -384,11 +381,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -475,13 +469,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>659765</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>151834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -534,23 +528,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>477501</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>153611</xdr:rowOff>
+      <xdr:colOff>296410</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837AA21D-358C-4F19-4EE1-AC8547FD77C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38368704-225D-DECB-895D-6FBBBE312462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -566,8 +560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7810500" y="781050"/>
-          <a:ext cx="8964276" cy="8678486"/>
+          <a:off x="8582025" y="1514475"/>
+          <a:ext cx="8135485" cy="7973538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:S40"/>
+  <dimension ref="A7:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +877,7 @@
     <col min="7" max="7" width="7.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -892,56 +886,34 @@
     <row r="10" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="I14" s="9">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="B16" s="33"/>
+      <c r="I16" s="9">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -952,176 +924,157 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="C25" s="15">
+        <v>287500</v>
+      </c>
+      <c r="D25" s="15">
+        <v>25000</v>
+      </c>
+      <c r="E25" s="16">
+        <f>SUM(C25+D25)*25%</f>
+        <v>78125</v>
+      </c>
+      <c r="F25" s="16">
+        <f>D25+C25+E25</f>
+        <v>390625</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="14">
         <v>2</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>1</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="15">
-        <f>316240/2</f>
-        <v>158120</v>
-      </c>
-      <c r="D23" s="15">
-        <v>25000</v>
-      </c>
-      <c r="E23" s="16">
-        <f>SUM(C23+D23)*25%</f>
-        <v>45780</v>
-      </c>
-      <c r="F23" s="16">
-        <f>D23+C23+E23</f>
-        <v>228900</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="14">
-        <v>2</v>
-      </c>
-      <c r="I23" s="15">
-        <f>F23*H23</f>
-        <v>457800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37">
-        <v>2</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="38">
-        <v>171100</v>
-      </c>
-      <c r="D24" s="15">
-        <v>30000</v>
-      </c>
-      <c r="E24" s="16">
-        <f>SUM(C24+D24)*25%</f>
-        <v>50275</v>
-      </c>
-      <c r="F24" s="16">
-        <f>D24+C24+E24</f>
-        <v>251375</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="14">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
-        <f>F24*H24</f>
-        <v>251375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="I25" s="15">
+        <f>F25*H25</f>
+        <v>781250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="31">
-        <f>SUM(I23:I24)</f>
-        <v>709175</v>
-      </c>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="31">
+        <f>SUM(I25:I25)</f>
+        <v>781250</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:19" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:19" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -1129,13 +1082,10 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="24"/>
+    </row>
+    <row r="36" spans="1:19" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -1145,31 +1095,45 @@
       <c r="I36" s="22"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K37" s="1"/>
+    <row r="37" spans="1:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K39" s="8"/>
-      <c r="S39">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K40" s="8"/>
+      <c r="S40">
         <v>145000</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S40">
-        <f>S39*1.18</f>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <f>S40*1.18</f>
         <v>171100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A22:I22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Running projects/Engro 3rd & 8th Floor/VO/03- variation order for submerisible pump.xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/VO/03- variation order for submerisible pump.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EDBCEE-9904-46C5-975A-D25E6F9AB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944FA8E-30C1-4672-91E0-F4CD16495DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Total Rate</t>
   </si>
   <si>
-    <t>Over head Profit 25%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
 RPM: 2900
 Model: DOMO 10
 </t>
+  </si>
+  <si>
+    <t>Over head Profit 28%</t>
   </si>
 </sst>
 </file>
@@ -369,6 +369,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -380,9 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,8 +536,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>296410</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>20163</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,10 +889,10 @@
     <row r="14" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="I16" s="9">
         <v>45621</v>
       </c>
@@ -903,7 +903,7 @@
     </row>
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="27"/>
     </row>
@@ -912,17 +912,17 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
@@ -936,32 +936,32 @@
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="A22" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>13</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="15">
         <v>287500</v>
@@ -1004,40 +1004,40 @@
         <v>25000</v>
       </c>
       <c r="E25" s="16">
-        <f>SUM(C25+D25)*25%</f>
-        <v>78125</v>
+        <f>SUM(C25+D25)*28%</f>
+        <v>87500.000000000015</v>
       </c>
       <c r="F25" s="16">
         <f>D25+C25+E25</f>
-        <v>390625</v>
+        <v>400000</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="14">
         <v>2</v>
       </c>
       <c r="I25" s="15">
         <f>F25*H25</f>
-        <v>781250</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="31">
         <f>SUM(I25:I25)</f>
-        <v>781250</v>
-      </c>
-      <c r="J26" s="37"/>
+        <v>800000</v>
+      </c>
+      <c r="J26" s="33"/>
       <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="5"/>
     </row>

--- a/Running projects/Engro 3rd & 8th Floor/VO/03- variation order for submerisible pump.xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/VO/03- variation order for submerisible pump.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944FA8E-30C1-4672-91E0-F4CD16495DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D113BF3-C7A7-4257-A978-E7B0960B4B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="B16" s="34"/>
       <c r="I16" s="9">
-        <v>45621</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
